--- a/data/proceed/BJFK_20220507_locs.xlsx
+++ b/data/proceed/BJFK_20220507_locs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="389">
   <si>
     <t>经纬度</t>
   </si>
@@ -85,6 +85,9 @@
     <t>116.46344260357873,39.87166581139248</t>
   </si>
   <si>
+    <t>116.45072375980493,39.878794144824184</t>
+  </si>
+  <si>
     <t>116.46563806009432,39.89969644875475</t>
   </si>
   <si>
@@ -163,6 +166,9 @@
     <t>116.47662181146214,39.86644055276</t>
   </si>
   <si>
+    <t>116.53994995850955,40.03326844838468</t>
+  </si>
+  <si>
     <t>116.48418864542074,39.86836829963537</t>
   </si>
   <si>
@@ -460,9 +466,18 @@
     <t>116.4802653337433,39.787731182054515</t>
   </si>
   <si>
+    <t>116.48068837942404,39.78853967667752</t>
+  </si>
+  <si>
     <t>116.69562188116875,39.66227604859159</t>
   </si>
   <si>
+    <t>116.34717685771514,39.71035222606949</t>
+  </si>
+  <si>
+    <t>116.43881077598876,39.77732946189785</t>
+  </si>
+  <si>
     <t>116.8470510647636,40.41277538329042</t>
   </si>
   <si>
@@ -574,6 +589,9 @@
     <t>朝阳区潘家园街道松榆西里73号楼</t>
   </si>
   <si>
+    <t>朝阳区潘家园街道潘家园3号楼</t>
+  </si>
+  <si>
     <t>朝阳区双井街道御宸上院1号楼</t>
   </si>
   <si>
@@ -652,6 +670,9 @@
     <t>朝阳区十八里店乡弘燕社区菜市场及宿舍</t>
   </si>
   <si>
+    <t>朝阳区孙河乡康营家园17区1号楼</t>
+  </si>
+  <si>
     <t>朝阳区南磨房乡双龙南里132号楼</t>
   </si>
   <si>
@@ -994,9 +1015,18 @@
     <t>大兴区亦庄镇南海雅苑北区20号楼</t>
   </si>
   <si>
+    <t>大兴区亦庄镇南海雅苑北区2号楼底商小荷鲜生店铺</t>
+  </si>
+  <si>
     <t>大兴区采育镇前甫村、后甫村</t>
   </si>
   <si>
+    <t>大兴区天宫院街道林海园小区</t>
+  </si>
+  <si>
+    <t>大兴区旧宫镇德茂佳苑小区8号楼</t>
+  </si>
+  <si>
     <t>密云区澜茵山小区3期1号楼</t>
   </si>
   <si>
@@ -1031,6 +1061,9 @@
   </si>
   <si>
     <t>顺义区李遂镇前营村紫云蜂业蜂产品进出口基地及前营村后街9号</t>
+  </si>
+  <si>
+    <t>顺义区李遂镇前营村紫云蜂业蜂产品进出口基地及前营村后街11号</t>
   </si>
   <si>
     <t>顺义区李遂镇李庄村农校路107号周边50米范围内的区域</t>
@@ -1505,7 +1538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G183"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1539,7 +1572,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -1548,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="F2" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G2" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1562,7 +1595,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C3">
         <v>75</v>
@@ -1571,13 +1604,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F3" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G3" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1585,7 +1618,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C4">
         <v>75</v>
@@ -1594,13 +1627,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F4" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G4" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1608,7 +1641,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C5">
         <v>75</v>
@@ -1617,13 +1650,13 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F5" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G5" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1631,7 +1664,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C6">
         <v>75</v>
@@ -1640,13 +1673,13 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F6" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G6" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1654,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C7">
         <v>75</v>
@@ -1663,13 +1696,13 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1677,7 +1710,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C8">
         <v>75</v>
@@ -1686,13 +1719,13 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F8" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G8" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1700,7 +1733,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C9">
         <v>75</v>
@@ -1709,13 +1742,13 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F9" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G9" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1723,7 +1756,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C10">
         <v>75</v>
@@ -1732,13 +1765,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F10" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G10" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1746,7 +1779,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C11">
         <v>75</v>
@@ -1755,13 +1788,13 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F11" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G11" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1769,7 +1802,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C12">
         <v>75</v>
@@ -1778,13 +1811,13 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F12" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G12" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1792,7 +1825,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C13">
         <v>75</v>
@@ -1801,13 +1834,13 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F13" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G13" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1815,7 +1848,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C14">
         <v>75</v>
@@ -1824,13 +1857,13 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F14" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G14" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1838,7 +1871,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C15">
         <v>75</v>
@@ -1847,13 +1880,13 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F15" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G15" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1861,7 +1894,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C16">
         <v>75</v>
@@ -1870,13 +1903,13 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F16" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G16" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1884,7 +1917,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C17">
         <v>75</v>
@@ -1893,13 +1926,13 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F17" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G17" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1907,22 +1940,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C18">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F18" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G18" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1930,22 +1963,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C19">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F19" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G19" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1953,22 +1986,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C20">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="F20" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G20" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1976,7 +2009,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C21">
         <v>50</v>
@@ -1985,13 +2018,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F21" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G21" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1999,22 +2032,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C22">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="F22" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G22" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2022,7 +2055,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C23">
         <v>75</v>
@@ -2031,13 +2064,13 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F23" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G23" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2045,7 +2078,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C24">
         <v>75</v>
@@ -2054,13 +2087,13 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F24" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G24" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2068,22 +2101,22 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C25">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F25" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G25" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2091,7 +2124,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C26">
         <v>70</v>
@@ -2100,13 +2133,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F26" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G26" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2114,22 +2147,22 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C27">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F27" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G27" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2137,7 +2170,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C28">
         <v>75</v>
@@ -2146,13 +2179,13 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F28" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G28" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2160,7 +2193,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C29">
         <v>75</v>
@@ -2169,13 +2202,13 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F29" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G29" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2183,7 +2216,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C30">
         <v>75</v>
@@ -2192,13 +2225,13 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F30" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G30" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2206,7 +2239,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C31">
         <v>75</v>
@@ -2215,13 +2248,13 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F31" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G31" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2229,22 +2262,22 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C32">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F32" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G32" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2252,30 +2285,30 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C33">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F33" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G33" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C34">
         <v>75</v>
@@ -2284,13 +2317,13 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F34" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G34" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2298,22 +2331,22 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C35">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F35" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G35" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2321,22 +2354,22 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C36">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F36" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G36" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2344,7 +2377,7 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C37">
         <v>75</v>
@@ -2353,13 +2386,13 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F37" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G37" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2367,22 +2400,22 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C38">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F38" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G38" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2390,7 +2423,7 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C39">
         <v>80</v>
@@ -2399,13 +2432,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="F39" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G39" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2413,22 +2446,22 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C40">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="F40" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G40" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2436,22 +2469,22 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C41">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="F41" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G41" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2459,22 +2492,22 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C42">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="F42" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G42" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2482,22 +2515,22 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C43">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="F43" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G43" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2505,22 +2538,22 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C44">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="F44" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G44" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2528,22 +2561,22 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C45">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F45" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G45" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2551,7 +2584,7 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C46">
         <v>75</v>
@@ -2560,13 +2593,13 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F46" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G46" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2574,7 +2607,7 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C47">
         <v>75</v>
@@ -2583,13 +2616,13 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F47" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G47" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2597,22 +2630,22 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C48">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F48" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G48" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2620,7 +2653,7 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C49">
         <v>75</v>
@@ -2629,13 +2662,13 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F49" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G49" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2643,22 +2676,22 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C50">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="F50" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G50" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2666,7 +2699,7 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C51">
         <v>75</v>
@@ -2675,13 +2708,13 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F51" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G51" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2689,22 +2722,22 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C52">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F52" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G52" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2712,22 +2745,22 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C53">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F53" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G53" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2735,7 +2768,7 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C54">
         <v>70</v>
@@ -2744,13 +2777,13 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F54" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G54" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2758,22 +2791,22 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C55">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="F55" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G55" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2781,22 +2814,22 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C56">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F56" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G56" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2804,22 +2837,22 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C57">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F57" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G57" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2827,22 +2860,22 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C58">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="F58" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G58" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2850,22 +2883,22 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C59">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F59" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G59" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2873,22 +2906,22 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C60">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F60" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G60" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2896,22 +2929,22 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C61">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F61" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G61" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2919,22 +2952,22 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C62">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F62" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G62" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2942,22 +2975,22 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C63">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="F63" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G63" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2965,7 +2998,7 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C64">
         <v>75</v>
@@ -2974,13 +3007,13 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F64" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G64" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2988,7 +3021,7 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C65">
         <v>75</v>
@@ -2997,13 +3030,13 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F65" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G65" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3011,22 +3044,22 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C66">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F66" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G66" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3034,7 +3067,7 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C67">
         <v>75</v>
@@ -3043,13 +3076,13 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F67" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G67" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3057,7 +3090,7 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C68">
         <v>70</v>
@@ -3066,13 +3099,13 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F68" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G68" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3080,7 +3113,7 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C69">
         <v>75</v>
@@ -3089,13 +3122,13 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F69" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G69" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3103,22 +3136,22 @@
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C70">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F70" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G70" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3126,7 +3159,7 @@
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C71">
         <v>75</v>
@@ -3135,13 +3168,13 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F71" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G71" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3149,7 +3182,7 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C72">
         <v>75</v>
@@ -3158,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F72" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G72" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3172,7 +3205,7 @@
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C73">
         <v>75</v>
@@ -3181,13 +3214,13 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F73" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G73" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3195,22 +3228,22 @@
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C74">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F74" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G74" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3218,22 +3251,22 @@
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C75">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="F75" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G75" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3241,7 +3274,7 @@
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C76">
         <v>70</v>
@@ -3250,13 +3283,13 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F76" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G76" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3264,7 +3297,7 @@
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C77">
         <v>50</v>
@@ -3273,13 +3306,13 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="F77" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G77" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3287,22 +3320,22 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C78">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F78" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G78" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3310,22 +3343,22 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C79">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F79" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G79" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3333,7 +3366,7 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C80">
         <v>75</v>
@@ -3342,13 +3375,13 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F80" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G80" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3356,53 +3389,53 @@
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C81">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="F81" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G81" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C82">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="F82" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G82" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C83">
         <v>50</v>
@@ -3411,21 +3444,21 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="F83" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G83" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C84">
         <v>50</v>
@@ -3434,21 +3467,21 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="F84" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G84" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C85">
         <v>50</v>
@@ -3457,21 +3490,21 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="F85" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G85" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C86">
         <v>50</v>
@@ -3480,21 +3513,21 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="F86" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G86" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C87">
         <v>50</v>
@@ -3503,21 +3536,21 @@
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="F87" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G87" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C88">
         <v>50</v>
@@ -3526,21 +3559,21 @@
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="F88" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G88" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C89">
         <v>50</v>
@@ -3549,36 +3582,36 @@
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="F89" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G89" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C90">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="F90" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G90" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3586,30 +3619,30 @@
         <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C91">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="F91" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G91" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C92">
         <v>70</v>
@@ -3618,36 +3651,36 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F92" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G92" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C93">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F93" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G93" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3655,22 +3688,22 @@
         <v>89</v>
       </c>
       <c r="B94" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="F94" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G94" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3678,22 +3711,22 @@
         <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C95">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="F95" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G95" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3701,22 +3734,22 @@
         <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C96">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F96" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G96" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3724,22 +3757,22 @@
         <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C97">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F97" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G97" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3747,22 +3780,22 @@
         <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C98">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="F98" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G98" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3770,7 +3803,7 @@
         <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C99">
         <v>70</v>
@@ -3779,13 +3812,13 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F99" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G99" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3793,53 +3826,53 @@
         <v>95</v>
       </c>
       <c r="B100" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C100">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F100" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G100" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B101" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C101">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F101" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G101" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B102" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C102">
         <v>75</v>
@@ -3848,21 +3881,21 @@
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F102" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G102" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B103" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C103">
         <v>75</v>
@@ -3871,21 +3904,21 @@
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F103" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G103" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B104" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C104">
         <v>75</v>
@@ -3894,21 +3927,21 @@
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F104" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G104" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B105" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C105">
         <v>75</v>
@@ -3917,13 +3950,13 @@
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F105" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G105" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3931,7 +3964,7 @@
         <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C106">
         <v>75</v>
@@ -3940,13 +3973,13 @@
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F106" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G106" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3954,7 +3987,7 @@
         <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C107">
         <v>75</v>
@@ -3963,13 +3996,13 @@
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F107" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G107" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3977,7 +4010,7 @@
         <v>101</v>
       </c>
       <c r="B108" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C108">
         <v>75</v>
@@ -3986,13 +4019,13 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F108" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G108" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4000,7 +4033,7 @@
         <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C109">
         <v>75</v>
@@ -4009,13 +4042,13 @@
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F109" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G109" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4023,53 +4056,53 @@
         <v>103</v>
       </c>
       <c r="B110" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C110">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F110" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G110" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B111" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C111">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D111">
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F111" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G111" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B112" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C112">
         <v>70</v>
@@ -4078,21 +4111,21 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F112" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G112" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B113" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C113">
         <v>70</v>
@@ -4101,21 +4134,21 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F113" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G113" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B114" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C114">
         <v>70</v>
@@ -4124,36 +4157,36 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F114" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G114" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B115" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C115">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F115" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G115" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4161,7 +4194,7 @@
         <v>107</v>
       </c>
       <c r="B116" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C116">
         <v>70</v>
@@ -4170,13 +4203,13 @@
         <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F116" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G116" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4184,22 +4217,22 @@
         <v>108</v>
       </c>
       <c r="B117" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C117">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="F117" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G117" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4207,7 +4240,7 @@
         <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C118">
         <v>70</v>
@@ -4216,13 +4249,13 @@
         <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F118" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G118" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4230,22 +4263,22 @@
         <v>110</v>
       </c>
       <c r="B119" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C119">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="F119" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G119" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4253,7 +4286,7 @@
         <v>111</v>
       </c>
       <c r="B120" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C120">
         <v>70</v>
@@ -4262,13 +4295,13 @@
         <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F120" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G120" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4276,22 +4309,22 @@
         <v>112</v>
       </c>
       <c r="B121" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C121">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F121" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G121" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4299,7 +4332,7 @@
         <v>113</v>
       </c>
       <c r="B122" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C122">
         <v>70</v>
@@ -4308,13 +4341,13 @@
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="F122" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G122" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4322,22 +4355,22 @@
         <v>114</v>
       </c>
       <c r="B123" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C123">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="F123" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G123" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4345,7 +4378,7 @@
         <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C124">
         <v>70</v>
@@ -4354,13 +4387,13 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F124" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G124" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4368,7 +4401,7 @@
         <v>116</v>
       </c>
       <c r="B125" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C125">
         <v>70</v>
@@ -4377,13 +4410,13 @@
         <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F125" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G125" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4391,22 +4424,22 @@
         <v>117</v>
       </c>
       <c r="B126" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C126">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D126">
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F126" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G126" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4414,7 +4447,7 @@
         <v>118</v>
       </c>
       <c r="B127" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C127">
         <v>70</v>
@@ -4423,13 +4456,13 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F127" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G127" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4437,22 +4470,22 @@
         <v>119</v>
       </c>
       <c r="B128" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C128">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D128">
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="F128" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G128" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4460,22 +4493,22 @@
         <v>120</v>
       </c>
       <c r="B129" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C129">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D129">
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="F129" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G129" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4483,7 +4516,7 @@
         <v>121</v>
       </c>
       <c r="B130" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C130">
         <v>70</v>
@@ -4492,13 +4525,13 @@
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F130" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G130" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4506,22 +4539,22 @@
         <v>122</v>
       </c>
       <c r="B131" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C131">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="F131" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G131" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4529,22 +4562,22 @@
         <v>123</v>
       </c>
       <c r="B132" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C132">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F132" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G132" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4552,7 +4585,7 @@
         <v>124</v>
       </c>
       <c r="B133" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C133">
         <v>75</v>
@@ -4561,13 +4594,13 @@
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F133" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G133" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4575,22 +4608,22 @@
         <v>125</v>
       </c>
       <c r="B134" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C134">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F134" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G134" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4598,22 +4631,22 @@
         <v>126</v>
       </c>
       <c r="B135" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C135">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D135">
         <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F135" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G135" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4621,7 +4654,7 @@
         <v>127</v>
       </c>
       <c r="B136" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C136">
         <v>70</v>
@@ -4630,13 +4663,13 @@
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F136" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G136" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4644,22 +4677,22 @@
         <v>128</v>
       </c>
       <c r="B137" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C137">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="F137" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G137" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4667,22 +4700,22 @@
         <v>129</v>
       </c>
       <c r="B138" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C138">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="F138" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G138" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4690,22 +4723,22 @@
         <v>130</v>
       </c>
       <c r="B139" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C139">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="F139" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G139" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4713,7 +4746,7 @@
         <v>131</v>
       </c>
       <c r="B140" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C140">
         <v>75</v>
@@ -4722,13 +4755,13 @@
         <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F140" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G140" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4736,22 +4769,22 @@
         <v>132</v>
       </c>
       <c r="B141" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C141">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D141">
         <v>1</v>
       </c>
       <c r="E141" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F141" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G141" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4759,7 +4792,7 @@
         <v>133</v>
       </c>
       <c r="B142" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C142">
         <v>75</v>
@@ -4768,13 +4801,13 @@
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="F142" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G142" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4782,53 +4815,53 @@
         <v>134</v>
       </c>
       <c r="B143" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C143">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D143">
         <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F143" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G143" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B144" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C144">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D144">
         <v>1</v>
       </c>
       <c r="E144" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F144" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G144" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B145" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C145">
         <v>70</v>
@@ -4837,36 +4870,36 @@
         <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F145" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G145" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B146" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C146">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="F146" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G146" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4874,22 +4907,22 @@
         <v>136</v>
       </c>
       <c r="B147" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C147">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D147">
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F147" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G147" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4897,22 +4930,22 @@
         <v>137</v>
       </c>
       <c r="B148" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C148">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F148" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G148" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4920,22 +4953,22 @@
         <v>138</v>
       </c>
       <c r="B149" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C149">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="F149" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G149" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4943,7 +4976,7 @@
         <v>139</v>
       </c>
       <c r="B150" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C150">
         <v>75</v>
@@ -4952,13 +4985,13 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F150" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G150" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4966,22 +4999,22 @@
         <v>140</v>
       </c>
       <c r="B151" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C151">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F151" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G151" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4989,22 +5022,22 @@
         <v>141</v>
       </c>
       <c r="B152" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C152">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="F152" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G152" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5012,22 +5045,22 @@
         <v>142</v>
       </c>
       <c r="B153" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C153">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D153">
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="F153" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G153" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5035,22 +5068,22 @@
         <v>143</v>
       </c>
       <c r="B154" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C154">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="F154" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G154" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5058,22 +5091,22 @@
         <v>144</v>
       </c>
       <c r="B155" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C155">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="F155" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G155" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5081,22 +5114,22 @@
         <v>145</v>
       </c>
       <c r="B156" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C156">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="F156" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G156" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5104,22 +5137,22 @@
         <v>146</v>
       </c>
       <c r="B157" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C157">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F157" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G157" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5127,22 +5160,22 @@
         <v>147</v>
       </c>
       <c r="B158" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C158">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="F158" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G158" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5150,7 +5183,7 @@
         <v>148</v>
       </c>
       <c r="B159" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C159">
         <v>50</v>
@@ -5159,13 +5192,13 @@
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="F159" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G159" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5173,22 +5206,22 @@
         <v>149</v>
       </c>
       <c r="B160" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C160">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D160">
         <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F160" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G160" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5196,22 +5229,22 @@
         <v>150</v>
       </c>
       <c r="B161" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C161">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D161">
         <v>1</v>
       </c>
       <c r="E161" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="F161" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G161" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5219,22 +5252,22 @@
         <v>151</v>
       </c>
       <c r="B162" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C162">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F162" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G162" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5242,22 +5275,22 @@
         <v>152</v>
       </c>
       <c r="B163" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C163">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D163">
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F163" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G163" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5265,22 +5298,22 @@
         <v>153</v>
       </c>
       <c r="B164" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C164">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="F164" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G164" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5288,22 +5321,22 @@
         <v>154</v>
       </c>
       <c r="B165" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C165">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F165" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G165" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5311,22 +5344,22 @@
         <v>155</v>
       </c>
       <c r="B166" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C166">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="F166" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G166" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5334,53 +5367,53 @@
         <v>156</v>
       </c>
       <c r="B167" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C167">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="F167" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G167" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B168" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C168">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="F168" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G168" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B169" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C169">
         <v>50</v>
@@ -5389,44 +5422,44 @@
         <v>0</v>
       </c>
       <c r="E169" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="F169" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G169" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B170" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C170">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="F170" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G170" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B171" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C171">
         <v>50</v>
@@ -5435,21 +5468,21 @@
         <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="F171" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G171" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B172" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C172">
         <v>50</v>
@@ -5458,21 +5491,21 @@
         <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F172" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G172" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B173" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C173">
         <v>50</v>
@@ -5481,182 +5514,182 @@
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F173" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G173" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B174" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C174">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F174" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G174" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B175" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C175">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F175" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G175" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B176" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C176">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F176" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G176" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B177" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C177">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F177" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G177" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B178" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C178">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="F178" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G178" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B179" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C179">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="F179" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G179" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B180" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C180">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="F180" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G180" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B181" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C181">
         <v>50</v>
@@ -5665,44 +5698,44 @@
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="F181" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G181" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B182" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C182">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D182">
         <v>1</v>
       </c>
       <c r="E182" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F182" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G182" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B183" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C183">
         <v>70</v>
@@ -5711,13 +5744,151 @@
         <v>1</v>
       </c>
       <c r="E183" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F183" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G183" t="s">
-        <v>377</v>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>169</v>
+      </c>
+      <c r="B184" t="s">
+        <v>356</v>
+      </c>
+      <c r="C184">
+        <v>75</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184" t="s">
+        <v>363</v>
+      </c>
+      <c r="F184" t="s">
+        <v>374</v>
+      </c>
+      <c r="G184" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>170</v>
+      </c>
+      <c r="B185" t="s">
+        <v>357</v>
+      </c>
+      <c r="C185">
+        <v>70</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185" t="s">
+        <v>364</v>
+      </c>
+      <c r="F185" t="s">
+        <v>374</v>
+      </c>
+      <c r="G185" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>171</v>
+      </c>
+      <c r="B186" t="s">
+        <v>358</v>
+      </c>
+      <c r="C186">
+        <v>50</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186" t="s">
+        <v>365</v>
+      </c>
+      <c r="F186" t="s">
+        <v>374</v>
+      </c>
+      <c r="G186" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>172</v>
+      </c>
+      <c r="B187" t="s">
+        <v>359</v>
+      </c>
+      <c r="C187">
+        <v>50</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187" t="s">
+        <v>362</v>
+      </c>
+      <c r="F187" t="s">
+        <v>374</v>
+      </c>
+      <c r="G187" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>173</v>
+      </c>
+      <c r="B188" t="s">
+        <v>360</v>
+      </c>
+      <c r="C188">
+        <v>75</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188" t="s">
+        <v>363</v>
+      </c>
+      <c r="F188" t="s">
+        <v>374</v>
+      </c>
+      <c r="G188" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>174</v>
+      </c>
+      <c r="B189" t="s">
+        <v>361</v>
+      </c>
+      <c r="C189">
+        <v>70</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189" t="s">
+        <v>364</v>
+      </c>
+      <c r="F189" t="s">
+        <v>374</v>
+      </c>
+      <c r="G189" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
